--- a/11-Parameters/pion4Tests.xlsx
+++ b/11-Parameters/pion4Tests.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2088450037632/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2F24E-46A2-074D-8FD9-224A353F4C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28DDD44-C3CD-824D-9EF6-7FFD0C49FCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="920" windowWidth="14880" windowHeight="18580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14800" yWindow="920" windowWidth="14880" windowHeight="18580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dummy4Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="pion4Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Parameter</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>pion</t>
+  </si>
+  <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Long drift</t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -248,11 +257,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,6 +288,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -863,11 +885,35 @@
         <v>28</v>
       </c>
       <c r="F11" s="9">
-        <v>0.998</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
